--- a/TempleSYS/系統文件/tablelayout_彰化天后三聖宮.xlsx
+++ b/TempleSYS/系統文件/tablelayout_彰化天后三聖宮.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="117">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -424,6 +424,70 @@
   </si>
   <si>
     <t>廟慶&amp;神明生日 財務統計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TempleGods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TempleBoard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公佈欄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>內容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告截止日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoEndDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoPeo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,11 +608,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
@@ -561,6 +624,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -857,102 +924,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>100</v>
       </c>
     </row>
@@ -964,38 +1031,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O86"/>
+  <dimension ref="A1:O99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:D34"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91:C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
       <c r="B2" t="s">
         <v>51</v>
       </c>
@@ -1009,7 +1085,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>50</v>
       </c>
@@ -1026,7 +1102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>50</v>
       </c>
@@ -1043,7 +1119,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>50</v>
       </c>
@@ -1060,7 +1136,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>50</v>
       </c>
@@ -1077,7 +1153,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>50</v>
       </c>
@@ -1094,7 +1170,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>50</v>
       </c>
@@ -1108,7 +1184,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>50</v>
       </c>
@@ -1122,7 +1198,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>50</v>
       </c>
@@ -1139,7 +1215,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>50</v>
       </c>
@@ -1153,7 +1229,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>50</v>
       </c>
@@ -1170,33 +1246,39 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="G14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>102</v>
+      </c>
       <c r="B16" t="s">
         <v>82</v>
       </c>
@@ -1206,12 +1288,12 @@
       <c r="D16" t="s">
         <v>42</v>
       </c>
-      <c r="G16" t="s">
+      <c r="F16" t="s">
         <v>84</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="I16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="O16" s="1"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
@@ -1226,12 +1308,12 @@
       <c r="E17">
         <v>30</v>
       </c>
-      <c r="G17" t="s">
+      <c r="F17" t="s">
         <v>0</v>
       </c>
-      <c r="I17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="I17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="O17" s="1"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
@@ -1246,12 +1328,12 @@
       <c r="E18">
         <v>5</v>
       </c>
-      <c r="G18" t="s">
+      <c r="F18" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="I18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="O18" s="1"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
@@ -1266,12 +1348,12 @@
       <c r="E19">
         <v>20</v>
       </c>
-      <c r="G19" t="s">
+      <c r="F19" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="I19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="O19" s="1"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
@@ -1286,12 +1368,12 @@
       <c r="E20">
         <v>30</v>
       </c>
-      <c r="G20" t="s">
+      <c r="F20" t="s">
         <v>2</v>
       </c>
-      <c r="I20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="I20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="O20" s="1"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
@@ -1306,12 +1388,12 @@
       <c r="E21">
         <v>30</v>
       </c>
-      <c r="G21" t="s">
+      <c r="F21" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="I21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="O21" s="1"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
@@ -1326,12 +1408,12 @@
       <c r="E22">
         <v>30</v>
       </c>
-      <c r="G22" t="s">
+      <c r="F22" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="I22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="O22" s="1"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
@@ -1346,12 +1428,12 @@
       <c r="E23">
         <v>30</v>
       </c>
-      <c r="G23" t="s">
+      <c r="F23" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="I23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="O23" s="1"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
@@ -1366,12 +1448,12 @@
       <c r="E24">
         <v>10</v>
       </c>
-      <c r="G24" t="s">
+      <c r="F24" t="s">
         <v>6</v>
       </c>
-      <c r="I24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="I24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="O24" s="1"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
@@ -1386,7 +1468,7 @@
       <c r="E25">
         <v>10</v>
       </c>
-      <c r="G25" t="s">
+      <c r="F25" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1403,7 +1485,7 @@
       <c r="E26">
         <v>10</v>
       </c>
-      <c r="G26" t="s">
+      <c r="F26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1420,7 +1502,7 @@
       <c r="E27">
         <v>10</v>
       </c>
-      <c r="G27" t="s">
+      <c r="F27" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1437,10 +1519,10 @@
       <c r="E28">
         <v>100</v>
       </c>
-      <c r="G28" t="s">
+      <c r="F28" t="s">
         <v>8</v>
       </c>
-      <c r="L28" s="2"/>
+      <c r="L28" s="1"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
@@ -1455,10 +1537,10 @@
       <c r="E29">
         <v>10</v>
       </c>
-      <c r="G29" t="s">
+      <c r="F29" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="2"/>
+      <c r="L29" s="1"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
@@ -1473,10 +1555,10 @@
       <c r="E30">
         <v>10</v>
       </c>
-      <c r="G30" t="s">
+      <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="L30" s="2"/>
+      <c r="L30" s="1"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
@@ -1491,10 +1573,10 @@
       <c r="E31">
         <v>10</v>
       </c>
-      <c r="G31" t="s">
+      <c r="F31" t="s">
         <v>13</v>
       </c>
-      <c r="L31" s="2"/>
+      <c r="L31" s="1"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
@@ -1509,12 +1591,12 @@
       <c r="E32">
         <v>3</v>
       </c>
-      <c r="G32" t="s">
+      <c r="F32" t="s">
         <v>14</v>
       </c>
-      <c r="L32" s="2"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>82</v>
       </c>
@@ -1527,11 +1609,11 @@
       <c r="E33">
         <v>3</v>
       </c>
-      <c r="G33" t="s">
+      <c r="F33" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>82</v>
       </c>
@@ -1544,11 +1626,11 @@
       <c r="E34">
         <v>3</v>
       </c>
-      <c r="G34" t="s">
+      <c r="F34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>82</v>
       </c>
@@ -1558,11 +1640,11 @@
       <c r="D35" t="s">
         <v>48</v>
       </c>
-      <c r="G35" t="s">
+      <c r="F35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>82</v>
       </c>
@@ -1572,11 +1654,11 @@
       <c r="D36" t="s">
         <v>47</v>
       </c>
-      <c r="G36" t="s">
+      <c r="F36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>82</v>
       </c>
@@ -1589,11 +1671,11 @@
       <c r="E37">
         <v>50</v>
       </c>
-      <c r="G37" t="s">
+      <c r="F37" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>82</v>
       </c>
@@ -1603,11 +1685,11 @@
       <c r="D38" t="s">
         <v>47</v>
       </c>
-      <c r="G38" t="s">
+      <c r="F38" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>82</v>
       </c>
@@ -1620,28 +1702,34 @@
       <c r="E39">
         <v>50</v>
       </c>
-      <c r="G39" t="s">
+      <c r="F39" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>102</v>
+      </c>
       <c r="B42" t="s">
         <v>54</v>
       </c>
@@ -1651,46 +1739,46 @@
       <c r="D42" t="s">
         <v>42</v>
       </c>
-      <c r="G42" t="s">
+      <c r="F42" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>54</v>
       </c>
@@ -1700,11 +1788,11 @@
       <c r="D50" t="s">
         <v>48</v>
       </c>
-      <c r="G50" t="s">
+      <c r="F50" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>54</v>
       </c>
@@ -1714,11 +1802,11 @@
       <c r="D51" t="s">
         <v>47</v>
       </c>
-      <c r="G51" t="s">
+      <c r="F51" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>54</v>
       </c>
@@ -1731,11 +1819,11 @@
       <c r="E52">
         <v>50</v>
       </c>
-      <c r="G52" t="s">
+      <c r="F52" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>54</v>
       </c>
@@ -1745,11 +1833,11 @@
       <c r="D53" t="s">
         <v>47</v>
       </c>
-      <c r="G53" t="s">
+      <c r="F53" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>54</v>
       </c>
@@ -1762,28 +1850,34 @@
       <c r="E54">
         <v>50</v>
       </c>
-      <c r="G54" t="s">
+      <c r="F54" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>102</v>
+      </c>
       <c r="B59" t="s">
         <v>53</v>
       </c>
@@ -1793,56 +1887,56 @@
       <c r="D59" t="s">
         <v>42</v>
       </c>
-      <c r="G59" t="s">
+      <c r="F59" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>53</v>
       </c>
@@ -1852,11 +1946,11 @@
       <c r="D69" t="s">
         <v>48</v>
       </c>
-      <c r="G69" t="s">
+      <c r="F69" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>53</v>
       </c>
@@ -1866,11 +1960,11 @@
       <c r="D70" t="s">
         <v>47</v>
       </c>
-      <c r="G70" t="s">
+      <c r="F70" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>53</v>
       </c>
@@ -1883,11 +1977,11 @@
       <c r="E71">
         <v>50</v>
       </c>
-      <c r="G71" t="s">
+      <c r="F71" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>53</v>
       </c>
@@ -1897,11 +1991,11 @@
       <c r="D72" t="s">
         <v>47</v>
       </c>
-      <c r="G72" t="s">
+      <c r="F72" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>53</v>
       </c>
@@ -1914,28 +2008,34 @@
       <c r="E73">
         <v>50</v>
       </c>
-      <c r="G73" t="s">
+      <c r="F73" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E78" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="F78" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>102</v>
+      </c>
       <c r="B79" t="s">
         <v>80</v>
       </c>
@@ -1945,11 +2045,11 @@
       <c r="D79" t="s">
         <v>42</v>
       </c>
-      <c r="G79" t="s">
+      <c r="F79" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>80</v>
       </c>
@@ -1962,11 +2062,11 @@
       <c r="E80">
         <v>50</v>
       </c>
-      <c r="G80" t="s">
+      <c r="F80" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>55</v>
       </c>
@@ -1979,11 +2079,11 @@
       <c r="E81">
         <v>50</v>
       </c>
-      <c r="G81" t="s">
+      <c r="F81" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>55</v>
       </c>
@@ -1993,11 +2093,11 @@
       <c r="D82" t="s">
         <v>48</v>
       </c>
-      <c r="G82" t="s">
+      <c r="F82" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>55</v>
       </c>
@@ -2007,11 +2107,11 @@
       <c r="D83" t="s">
         <v>47</v>
       </c>
-      <c r="G83" t="s">
+      <c r="F83" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>55</v>
       </c>
@@ -2024,11 +2124,11 @@
       <c r="E84">
         <v>50</v>
       </c>
-      <c r="G84" t="s">
+      <c r="F84" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>55</v>
       </c>
@@ -2038,13 +2138,13 @@
       <c r="D85" t="s">
         <v>47</v>
       </c>
-      <c r="G85" t="s">
+      <c r="F85" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="C86" t="s">
         <v>41</v>
@@ -2055,7 +2155,168 @@
       <c r="E86">
         <v>50</v>
       </c>
-      <c r="G86" t="s">
+      <c r="F86" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>102</v>
+      </c>
+      <c r="B91" t="s">
+        <v>104</v>
+      </c>
+      <c r="C91" t="s">
+        <v>31</v>
+      </c>
+      <c r="D91" t="s">
+        <v>42</v>
+      </c>
+      <c r="F91" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>104</v>
+      </c>
+      <c r="C92" t="s">
+        <v>113</v>
+      </c>
+      <c r="D92" t="s">
+        <v>112</v>
+      </c>
+      <c r="F92" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C93" t="s">
+        <v>114</v>
+      </c>
+      <c r="D93" t="s">
+        <v>110</v>
+      </c>
+      <c r="E93" t="s">
+        <v>111</v>
+      </c>
+      <c r="F93" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>104</v>
+      </c>
+      <c r="C94" t="s">
+        <v>115</v>
+      </c>
+      <c r="D94" t="s">
+        <v>112</v>
+      </c>
+      <c r="F94" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>104</v>
+      </c>
+      <c r="C95" t="s">
+        <v>116</v>
+      </c>
+      <c r="D95" t="s">
+        <v>110</v>
+      </c>
+      <c r="E95">
+        <v>30</v>
+      </c>
+      <c r="F95" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>104</v>
+      </c>
+      <c r="C96" t="s">
+        <v>38</v>
+      </c>
+      <c r="D96" t="s">
+        <v>47</v>
+      </c>
+      <c r="F96" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>104</v>
+      </c>
+      <c r="C97" t="s">
+        <v>40</v>
+      </c>
+      <c r="D97" t="s">
+        <v>44</v>
+      </c>
+      <c r="E97">
+        <v>50</v>
+      </c>
+      <c r="F97" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>104</v>
+      </c>
+      <c r="C98" t="s">
+        <v>39</v>
+      </c>
+      <c r="D98" t="s">
+        <v>47</v>
+      </c>
+      <c r="F98" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>104</v>
+      </c>
+      <c r="C99" t="s">
+        <v>41</v>
+      </c>
+      <c r="D99" t="s">
+        <v>43</v>
+      </c>
+      <c r="E99">
+        <v>50</v>
+      </c>
+      <c r="F99" t="s">
         <v>26</v>
       </c>
     </row>

--- a/TempleSYS/系統文件/tablelayout_彰化天后三聖宮.xlsx
+++ b/TempleSYS/系統文件/tablelayout_彰化天后三聖宮.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mepowerlmay\TempleSYS\TempleSYS\系統文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76962892-A7A5-4ECA-8566-7AAC762EE05F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表格說明" sheetId="4" r:id="rId1"/>
     <sheet name="表格清單" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="162">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -259,30 +260,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>phone1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cellphone1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cellphone2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Birthday</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LBirthday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PostZone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -291,10 +272,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Addr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ChYears</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -323,18 +300,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>全名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>簡稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>shtName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FuName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -488,13 +457,225 @@
   </si>
   <si>
     <t>BoPeo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感謝狀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經手人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>會計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>會計ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單據日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太歲/光明燈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年齡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經手人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>義子義女ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>農曆年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬令救濟表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最後一次日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬令救濟表明細表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>關懷紀錄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>記錄人員ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TempleRole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TempleUserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimail(18,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經手人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>記錄人員</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>救濟表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CellPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住家電話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CellPhone1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CellPhone2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>職稱ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>職級表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>職及名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePhone1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePhone2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lbirthday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleNameId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -909,7 +1090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -925,18 +1106,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>51</v>
@@ -948,10 +1129,10 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -960,7 +1141,7 @@
         <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -969,58 +1150,58 @@
         <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1030,11 +1211,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:O201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91:C99"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1042,15 +1223,15 @@
     <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>52</v>
@@ -1068,12 +1249,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
@@ -1085,7 +1266,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>50</v>
       </c>
@@ -1102,7 +1283,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>50</v>
       </c>
@@ -1119,7 +1300,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>50</v>
       </c>
@@ -1136,956 +1317,1001 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>161</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
         <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>50</v>
       </c>
       <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
         <v>41</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D14" t="s">
         <v>43</v>
       </c>
-      <c r="E12">
-        <v>50</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E14">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="5" t="s">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>42</v>
       </c>
-      <c r="F16" t="s">
-        <v>84</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17">
-        <v>30</v>
-      </c>
       <c r="F17" t="s">
-        <v>0</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G17" s="1"/>
       <c r="I17" s="1"/>
       <c r="M17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18">
-        <v>5</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19">
-        <v>20</v>
-      </c>
-      <c r="F19" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20">
-        <v>30</v>
-      </c>
-      <c r="F20" t="s">
-        <v>2</v>
-      </c>
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="1"/>
       <c r="I20" s="1"/>
       <c r="M20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21">
-        <v>30</v>
-      </c>
-      <c r="F21" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22">
-        <v>30</v>
-      </c>
-      <c r="F22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23">
-        <v>30</v>
-      </c>
-      <c r="F23" t="s">
-        <v>5</v>
-      </c>
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="1"/>
       <c r="I23" s="1"/>
       <c r="M23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" t="s">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32">
+        <v>20</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34">
+        <v>20</v>
+      </c>
+      <c r="F34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="O38" s="1"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="O39" s="1"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" t="s">
+        <v>76</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41">
+        <v>20</v>
+      </c>
+      <c r="F41" t="s">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="O41" s="1"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="O42" s="1"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43">
+        <v>20</v>
+      </c>
+      <c r="F43" t="s">
+        <v>27</v>
+      </c>
+      <c r="I43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="O43" s="1"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" t="s">
+        <v>73</v>
+      </c>
+      <c r="E44">
+        <v>30</v>
+      </c>
+      <c r="F44" t="s">
+        <v>2</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="O44" s="1"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" t="s">
+        <v>149</v>
+      </c>
+      <c r="D45" t="s">
+        <v>73</v>
+      </c>
+      <c r="E45">
+        <v>30</v>
+      </c>
+      <c r="F45" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="O45" s="1"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" t="s">
+        <v>157</v>
+      </c>
+      <c r="D46" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46">
+        <v>30</v>
+      </c>
+      <c r="F46" t="s">
+        <v>4</v>
+      </c>
+      <c r="I46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="O46" s="1"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" t="s">
+        <v>158</v>
+      </c>
+      <c r="D47" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47">
+        <v>30</v>
+      </c>
+      <c r="F47" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="O47" s="1"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48">
+        <v>10</v>
+      </c>
+      <c r="F48" t="s">
+        <v>6</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="O48" s="1"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" t="s">
+        <v>159</v>
+      </c>
+      <c r="D49" t="s">
+        <v>73</v>
+      </c>
+      <c r="E49">
+        <v>10</v>
+      </c>
+      <c r="F49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" t="s">
+        <v>73</v>
+      </c>
+      <c r="E50">
+        <v>10</v>
+      </c>
+      <c r="F50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51">
+        <v>10</v>
+      </c>
+      <c r="F51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" t="s">
+        <v>142</v>
+      </c>
+      <c r="D52" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" t="s">
+        <v>73</v>
+      </c>
+      <c r="E53">
+        <v>10</v>
+      </c>
+      <c r="F53" t="s">
+        <v>10</v>
+      </c>
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" t="s">
         <v>63</v>
       </c>
-      <c r="D24" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24">
+      <c r="D54" t="s">
+        <v>73</v>
+      </c>
+      <c r="E54">
         <v>10</v>
       </c>
-      <c r="F24" t="s">
-        <v>6</v>
-      </c>
-      <c r="I24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="F54" t="s">
+        <v>11</v>
+      </c>
+      <c r="L54" s="1"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" t="s">
         <v>64</v>
       </c>
-      <c r="D25" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25">
+      <c r="D55" t="s">
+        <v>73</v>
+      </c>
+      <c r="E55">
         <v>10</v>
       </c>
-      <c r="F25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="F55" t="s">
+        <v>13</v>
+      </c>
+      <c r="L55" s="1"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" t="s">
+        <v>73</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56" t="s">
+        <v>14</v>
+      </c>
+      <c r="L56" s="1"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" t="s">
+        <v>67</v>
+      </c>
+      <c r="D57" t="s">
+        <v>73</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" t="s">
         <v>66</v>
       </c>
-      <c r="D26" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26">
-        <v>10</v>
-      </c>
-      <c r="F26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27">
-        <v>10</v>
-      </c>
-      <c r="F27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28">
-        <v>100</v>
-      </c>
-      <c r="F28" t="s">
-        <v>8</v>
-      </c>
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29">
-        <v>10</v>
-      </c>
-      <c r="F29" t="s">
-        <v>10</v>
-      </c>
-      <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" t="s">
-        <v>81</v>
-      </c>
-      <c r="E30">
-        <v>10</v>
-      </c>
-      <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" t="s">
-        <v>81</v>
-      </c>
-      <c r="E31">
-        <v>10</v>
-      </c>
-      <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="L31" s="1"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32">
+      <c r="D58" t="s">
+        <v>73</v>
+      </c>
+      <c r="E58">
         <v>3</v>
       </c>
-      <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="L32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" t="s">
-        <v>81</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="F58" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" t="s">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" t="s">
         <v>37</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D59" t="s">
         <v>48</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F59" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" t="s">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" t="s">
         <v>38</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D60" t="s">
         <v>47</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F60" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37" t="s">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" t="s">
         <v>40</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D61" t="s">
         <v>44</v>
       </c>
-      <c r="E37">
-        <v>50</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="E61">
+        <v>20</v>
+      </c>
+      <c r="F61" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" t="s">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" t="s">
         <v>39</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D62" t="s">
         <v>47</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F62" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" t="s">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" t="s">
         <v>41</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D63" t="s">
         <v>43</v>
       </c>
-      <c r="E39">
-        <v>50</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="E63">
+        <v>20</v>
+      </c>
+      <c r="F63" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B41" s="5" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C65" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D65" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E65" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F65" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>102</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66" t="s">
         <v>54</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C66" t="s">
         <v>31</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D66" t="s">
         <v>42</v>
       </c>
-      <c r="F42" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" t="s">
-        <v>37</v>
-      </c>
-      <c r="D50" t="s">
-        <v>48</v>
-      </c>
-      <c r="F50" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D51" t="s">
-        <v>47</v>
-      </c>
-      <c r="F51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" t="s">
-        <v>40</v>
-      </c>
-      <c r="D52" t="s">
-        <v>44</v>
-      </c>
-      <c r="E52">
-        <v>50</v>
-      </c>
-      <c r="F52" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53" t="s">
-        <v>39</v>
-      </c>
-      <c r="D53" t="s">
-        <v>47</v>
-      </c>
-      <c r="F53" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" t="s">
-        <v>41</v>
-      </c>
-      <c r="D54" t="s">
-        <v>43</v>
-      </c>
-      <c r="E54">
-        <v>50</v>
-      </c>
-      <c r="F54" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>102</v>
-      </c>
-      <c r="B59" t="s">
-        <v>53</v>
-      </c>
-      <c r="C59" t="s">
-        <v>31</v>
-      </c>
-      <c r="D59" t="s">
-        <v>42</v>
-      </c>
-      <c r="F59" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>53</v>
+      <c r="F66" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="C67" t="s">
+        <v>134</v>
+      </c>
+      <c r="D67" t="s">
+        <v>42</v>
+      </c>
+      <c r="F67" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="C68" t="s">
+        <v>37</v>
+      </c>
+      <c r="D68" t="s">
+        <v>48</v>
+      </c>
+      <c r="F68" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C69" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F69" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C70" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D70" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="E70">
+        <v>20</v>
       </c>
       <c r="F70" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D71" t="s">
-        <v>44</v>
-      </c>
-      <c r="E71">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F71" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
+        <v>54</v>
+      </c>
+      <c r="C72" t="s">
+        <v>41</v>
+      </c>
+      <c r="D72" t="s">
+        <v>43</v>
+      </c>
+      <c r="E72">
+        <v>20</v>
+      </c>
+      <c r="F72" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>94</v>
+      </c>
+      <c r="B77" t="s">
         <v>53</v>
       </c>
-      <c r="C72" t="s">
-        <v>39</v>
-      </c>
-      <c r="D72" t="s">
-        <v>47</v>
-      </c>
-      <c r="F72" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
+      <c r="C77" t="s">
+        <v>31</v>
+      </c>
+      <c r="D77" t="s">
+        <v>42</v>
+      </c>
+      <c r="F77" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
         <v>53</v>
       </c>
-      <c r="C73" t="s">
-        <v>41</v>
-      </c>
-      <c r="D73" t="s">
-        <v>43</v>
-      </c>
-      <c r="E73">
-        <v>50</v>
-      </c>
-      <c r="F73" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>49</v>
+      <c r="C78" t="s">
+        <v>34</v>
+      </c>
+      <c r="D78" t="s">
+        <v>138</v>
+      </c>
+      <c r="E78">
+        <v>20</v>
+      </c>
+      <c r="F78" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>102</v>
-      </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="C79" t="s">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c r="D79" t="s">
-        <v>42</v>
+        <v>138</v>
+      </c>
+      <c r="E79">
+        <v>100</v>
       </c>
       <c r="F79" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="C80" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="D80" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="E80">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F80" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C81" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="D81" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="E81">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F81" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C82" t="s">
         <v>37</v>
@@ -2099,7 +2325,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C83" t="s">
         <v>38</v>
@@ -2113,7 +2339,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C84" t="s">
         <v>40</v>
@@ -2130,7 +2356,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C85" t="s">
         <v>39</v>
@@ -2144,7 +2370,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="C86" t="s">
         <v>41</v>
@@ -2159,108 +2385,94 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B90" s="5" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C91" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="D91" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E90" s="6" t="s">
+      <c r="E91" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F90" s="6" t="s">
+      <c r="F91" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>102</v>
-      </c>
-      <c r="B91" t="s">
-        <v>104</v>
-      </c>
-      <c r="C91" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" t="s">
+        <v>72</v>
+      </c>
+      <c r="C92" t="s">
         <v>31</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D92" t="s">
         <v>42</v>
       </c>
-      <c r="F91" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>104</v>
-      </c>
-      <c r="C92" t="s">
-        <v>113</v>
-      </c>
-      <c r="D92" t="s">
-        <v>112</v>
-      </c>
       <c r="F92" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="C93" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="D93" t="s">
-        <v>110</v>
-      </c>
-      <c r="E93" t="s">
-        <v>111</v>
+        <v>71</v>
+      </c>
+      <c r="E93">
+        <v>50</v>
       </c>
       <c r="F93" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="C94" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="D94" t="s">
-        <v>112</v>
+        <v>71</v>
+      </c>
+      <c r="E94">
+        <v>50</v>
       </c>
       <c r="F94" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="C95" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="D95" t="s">
-        <v>110</v>
-      </c>
-      <c r="E95">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F95" t="s">
-        <v>109</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="C96" t="s">
         <v>38</v>
@@ -2272,9 +2484,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="C97" t="s">
         <v>40</v>
@@ -2283,15 +2495,15 @@
         <v>44</v>
       </c>
       <c r="E97">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F97" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="C98" t="s">
         <v>39</v>
@@ -2303,9 +2515,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C99" t="s">
         <v>41</v>
@@ -2314,9 +2526,1013 @@
         <v>43</v>
       </c>
       <c r="E99">
+        <v>20</v>
+      </c>
+      <c r="F99" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>94</v>
+      </c>
+      <c r="B104" t="s">
+        <v>96</v>
+      </c>
+      <c r="C104" t="s">
+        <v>31</v>
+      </c>
+      <c r="D104" t="s">
+        <v>42</v>
+      </c>
+      <c r="F104" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>96</v>
+      </c>
+      <c r="C105" t="s">
+        <v>105</v>
+      </c>
+      <c r="D105" t="s">
+        <v>104</v>
+      </c>
+      <c r="F105" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>96</v>
+      </c>
+      <c r="C106" t="s">
+        <v>106</v>
+      </c>
+      <c r="D106" t="s">
+        <v>102</v>
+      </c>
+      <c r="E106" t="s">
+        <v>103</v>
+      </c>
+      <c r="F106" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>96</v>
+      </c>
+      <c r="C107" t="s">
+        <v>107</v>
+      </c>
+      <c r="D107" t="s">
+        <v>104</v>
+      </c>
+      <c r="F107" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>96</v>
+      </c>
+      <c r="C108" t="s">
+        <v>108</v>
+      </c>
+      <c r="D108" t="s">
+        <v>102</v>
+      </c>
+      <c r="E108">
+        <v>20</v>
+      </c>
+      <c r="F108" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>37</v>
+      </c>
+      <c r="D109" t="s">
+        <v>48</v>
+      </c>
+      <c r="F109" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>96</v>
+      </c>
+      <c r="C110" t="s">
+        <v>38</v>
+      </c>
+      <c r="D110" t="s">
+        <v>47</v>
+      </c>
+      <c r="E110">
+        <v>8</v>
+      </c>
+      <c r="F110" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>96</v>
+      </c>
+      <c r="C111" t="s">
+        <v>40</v>
+      </c>
+      <c r="D111" t="s">
+        <v>44</v>
+      </c>
+      <c r="E111">
+        <v>20</v>
+      </c>
+      <c r="F111" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>96</v>
+      </c>
+      <c r="C112" t="s">
+        <v>39</v>
+      </c>
+      <c r="D112" t="s">
+        <v>47</v>
+      </c>
+      <c r="E112">
+        <v>8</v>
+      </c>
+      <c r="F112" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>96</v>
+      </c>
+      <c r="C113" t="s">
+        <v>41</v>
+      </c>
+      <c r="D113" t="s">
+        <v>44</v>
+      </c>
+      <c r="E113">
+        <v>20</v>
+      </c>
+      <c r="F113" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>94</v>
+      </c>
+      <c r="C116" t="s">
+        <v>31</v>
+      </c>
+      <c r="D116" t="s">
+        <v>42</v>
+      </c>
+      <c r="F116" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>45</v>
+      </c>
+      <c r="E117">
+        <v>8</v>
+      </c>
+      <c r="F117" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>45</v>
+      </c>
+      <c r="E118">
+        <v>20</v>
+      </c>
+      <c r="F118" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>138</v>
+      </c>
+      <c r="E119">
+        <v>20</v>
+      </c>
+      <c r="F119" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>45</v>
+      </c>
+      <c r="E120">
+        <v>100</v>
+      </c>
+      <c r="F120" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>135</v>
+      </c>
+      <c r="F121" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>45</v>
+      </c>
+      <c r="E122">
         <v>50</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F122" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>42</v>
+      </c>
+      <c r="F123" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>45</v>
+      </c>
+      <c r="E124">
+        <v>50</v>
+      </c>
+      <c r="F124" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>42</v>
+      </c>
+      <c r="F125" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C126" t="s">
+        <v>37</v>
+      </c>
+      <c r="D126" t="s">
+        <v>48</v>
+      </c>
+      <c r="F126" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
+        <v>38</v>
+      </c>
+      <c r="D127" t="s">
+        <v>47</v>
+      </c>
+      <c r="F127" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C128" t="s">
+        <v>40</v>
+      </c>
+      <c r="D128" t="s">
+        <v>44</v>
+      </c>
+      <c r="E128">
+        <v>20</v>
+      </c>
+      <c r="F128" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C129" t="s">
+        <v>39</v>
+      </c>
+      <c r="D129" t="s">
+        <v>47</v>
+      </c>
+      <c r="F129" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C130" t="s">
+        <v>41</v>
+      </c>
+      <c r="D130" t="s">
+        <v>43</v>
+      </c>
+      <c r="E130">
+        <v>20</v>
+      </c>
+      <c r="F130" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>94</v>
+      </c>
+      <c r="C133" t="s">
+        <v>31</v>
+      </c>
+      <c r="D133" t="s">
+        <v>42</v>
+      </c>
+      <c r="F133" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F134" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F135" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F136" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F137" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F138" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F139" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F140" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F141" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F142" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F143" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F144" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F145" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F146" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C147" t="s">
+        <v>37</v>
+      </c>
+      <c r="D147" t="s">
+        <v>48</v>
+      </c>
+      <c r="F147" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C148" t="s">
+        <v>38</v>
+      </c>
+      <c r="D148" t="s">
+        <v>47</v>
+      </c>
+      <c r="F148" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C149" t="s">
+        <v>40</v>
+      </c>
+      <c r="D149" t="s">
+        <v>44</v>
+      </c>
+      <c r="E149">
+        <v>20</v>
+      </c>
+      <c r="F149" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C150" t="s">
+        <v>39</v>
+      </c>
+      <c r="D150" t="s">
+        <v>47</v>
+      </c>
+      <c r="F150" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C151" t="s">
+        <v>41</v>
+      </c>
+      <c r="D151" t="s">
+        <v>43</v>
+      </c>
+      <c r="E151">
+        <v>20</v>
+      </c>
+      <c r="F151" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>94</v>
+      </c>
+      <c r="C155" t="s">
+        <v>31</v>
+      </c>
+      <c r="D155" t="s">
+        <v>42</v>
+      </c>
+      <c r="F155" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D156" t="s">
+        <v>138</v>
+      </c>
+      <c r="E156">
+        <v>20</v>
+      </c>
+      <c r="F156" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D157" t="s">
+        <v>138</v>
+      </c>
+      <c r="E157">
+        <v>100</v>
+      </c>
+      <c r="F157" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D158" t="s">
+        <v>47</v>
+      </c>
+      <c r="F158" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D159" t="s">
+        <v>138</v>
+      </c>
+      <c r="E159" t="s">
+        <v>139</v>
+      </c>
+      <c r="F159" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C160" t="s">
+        <v>37</v>
+      </c>
+      <c r="D160" t="s">
+        <v>48</v>
+      </c>
+      <c r="F160" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C161" t="s">
+        <v>38</v>
+      </c>
+      <c r="D161" t="s">
+        <v>47</v>
+      </c>
+      <c r="F161" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C162" t="s">
+        <v>40</v>
+      </c>
+      <c r="D162" t="s">
+        <v>44</v>
+      </c>
+      <c r="E162">
+        <v>20</v>
+      </c>
+      <c r="F162" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C163" t="s">
+        <v>39</v>
+      </c>
+      <c r="D163" t="s">
+        <v>47</v>
+      </c>
+      <c r="F163" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C164" t="s">
+        <v>41</v>
+      </c>
+      <c r="D164" t="s">
+        <v>43</v>
+      </c>
+      <c r="E164">
+        <v>20</v>
+      </c>
+      <c r="F164" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F166" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>94</v>
+      </c>
+      <c r="C167" t="s">
+        <v>31</v>
+      </c>
+      <c r="D167" t="s">
+        <v>42</v>
+      </c>
+      <c r="F167" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D168" t="s">
+        <v>42</v>
+      </c>
+      <c r="F168" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D169" t="s">
+        <v>138</v>
+      </c>
+      <c r="E169" t="s">
+        <v>139</v>
+      </c>
+      <c r="F169" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D170" t="s">
+        <v>42</v>
+      </c>
+      <c r="F170" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D171" t="s">
+        <v>138</v>
+      </c>
+      <c r="E171">
+        <v>20</v>
+      </c>
+      <c r="F171" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C172" t="s">
+        <v>37</v>
+      </c>
+      <c r="D172" t="s">
+        <v>48</v>
+      </c>
+      <c r="F172" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C173" t="s">
+        <v>38</v>
+      </c>
+      <c r="D173" t="s">
+        <v>47</v>
+      </c>
+      <c r="F173" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C174" t="s">
+        <v>40</v>
+      </c>
+      <c r="D174" t="s">
+        <v>44</v>
+      </c>
+      <c r="E174">
+        <v>20</v>
+      </c>
+      <c r="F174" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C175" t="s">
+        <v>39</v>
+      </c>
+      <c r="D175" t="s">
+        <v>47</v>
+      </c>
+      <c r="F175" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C176" t="s">
+        <v>41</v>
+      </c>
+      <c r="D176" t="s">
+        <v>43</v>
+      </c>
+      <c r="E176">
+        <v>20</v>
+      </c>
+      <c r="F176" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E180" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F180" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>94</v>
+      </c>
+      <c r="C181" t="s">
+        <v>31</v>
+      </c>
+      <c r="D181" t="s">
+        <v>42</v>
+      </c>
+      <c r="F181" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D182" t="s">
+        <v>138</v>
+      </c>
+      <c r="E182">
+        <v>20</v>
+      </c>
+      <c r="F182" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C183" t="s">
+        <v>37</v>
+      </c>
+      <c r="D183" t="s">
+        <v>48</v>
+      </c>
+      <c r="F183" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C184" t="s">
+        <v>38</v>
+      </c>
+      <c r="D184" t="s">
+        <v>47</v>
+      </c>
+      <c r="F184" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C185" t="s">
+        <v>40</v>
+      </c>
+      <c r="D185" t="s">
+        <v>44</v>
+      </c>
+      <c r="E185">
+        <v>20</v>
+      </c>
+      <c r="F185" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C186" t="s">
+        <v>39</v>
+      </c>
+      <c r="D186" t="s">
+        <v>47</v>
+      </c>
+      <c r="F186" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C187" t="s">
+        <v>41</v>
+      </c>
+      <c r="D187" t="s">
+        <v>43</v>
+      </c>
+      <c r="E187">
+        <v>20</v>
+      </c>
+      <c r="F187" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E194" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F194" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>94</v>
+      </c>
+      <c r="C195" t="s">
+        <v>31</v>
+      </c>
+      <c r="D195" t="s">
+        <v>42</v>
+      </c>
+      <c r="F195" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D196" t="s">
+        <v>138</v>
+      </c>
+      <c r="E196">
+        <v>20</v>
+      </c>
+      <c r="F196" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C197" t="s">
+        <v>37</v>
+      </c>
+      <c r="D197" t="s">
+        <v>48</v>
+      </c>
+      <c r="F197" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C198" t="s">
+        <v>38</v>
+      </c>
+      <c r="D198" t="s">
+        <v>47</v>
+      </c>
+      <c r="F198" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C199" t="s">
+        <v>40</v>
+      </c>
+      <c r="D199" t="s">
+        <v>44</v>
+      </c>
+      <c r="E199">
+        <v>20</v>
+      </c>
+      <c r="F199" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C200" t="s">
+        <v>39</v>
+      </c>
+      <c r="D200" t="s">
+        <v>47</v>
+      </c>
+      <c r="F200" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C201" t="s">
+        <v>41</v>
+      </c>
+      <c r="D201" t="s">
+        <v>43</v>
+      </c>
+      <c r="E201">
+        <v>20</v>
+      </c>
+      <c r="F201" t="s">
         <v>26</v>
       </c>
     </row>

--- a/TempleSYS/系統文件/tablelayout_彰化天后三聖宮.xlsx
+++ b/TempleSYS/系統文件/tablelayout_彰化天后三聖宮.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mepowerlmay\TempleSYS\TempleSYS\系統文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F93432C-6A3C-4854-85B5-70FD53499115}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C669D4-0C7B-43F0-833F-07E0BF1DF5F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="2010" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表格說明" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="196">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,10 +212,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TempleUser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>表格名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -224,10 +220,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TempleChild</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TempleGods</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -304,10 +296,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TemplePeoBasic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>角色權限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -316,10 +304,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>義子義女表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>宮內人員表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -340,11 +324,207 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>主key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>TempleGods</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Temple_t_role</t>
+    <t>TempleBoard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公佈欄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>內容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoPeo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感謝狀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經手人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>會計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>會計ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單據日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年齡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經手人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>農曆年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬令救濟表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最後一次日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬令救濟表明細表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>關懷紀錄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>記錄人員ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimail(18,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經手人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>記錄人員</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>救濟表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CellPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住家電話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CellPhone1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CellPhone2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>職稱ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -352,67 +532,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>權限表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色權限表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Temple_t_qx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Temple_t_role_qx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>太歲燈&amp;光明燈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>感謝狀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>廟慶&amp;神明生日 財務統計</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TempleGods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TempleBoard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公佈欄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>內容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公告截止日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公告人</t>
+    <t>職級表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>職及名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePhone1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePhone2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lbirthday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TempleTKShape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TKDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TKName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TKPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TKAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TKMoney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TKAccess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TKAccessId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TKAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TKAccountId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TempleBright</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRDare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRYear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRChYear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRAge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRBrithday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRAccess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRAccessId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRAccountId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -420,147 +660,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DateTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoContent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoEndDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoPeo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>感謝狀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金額</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經手人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>會計</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>會計ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>單據日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流水號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出生日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年齡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經手人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>農曆年度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冬令救濟表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最後一次日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>備註</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冬令救濟表明細表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>關懷紀錄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>記錄人員ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimail(18,2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經手人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>記錄人員</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>救濟表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Address</t>
+    <t>光明燈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太歲燈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TempleTaiSui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSDare</t>
+  </si>
+  <si>
+    <t>TSYear</t>
+  </si>
+  <si>
+    <t>TSChYear</t>
+  </si>
+  <si>
+    <t>TSNo</t>
+  </si>
+  <si>
+    <t>TSName</t>
+  </si>
+  <si>
+    <t>TSPhone</t>
+  </si>
+  <si>
+    <t>TSAddress</t>
+  </si>
+  <si>
+    <t>TSBrithday</t>
+  </si>
+  <si>
+    <t>TSAge</t>
+  </si>
+  <si>
+    <t>TSAccess</t>
+  </si>
+  <si>
+    <t>TSAccessId</t>
+  </si>
+  <si>
+    <t>TSAccount</t>
+  </si>
+  <si>
+    <t>TSAccountId</t>
+  </si>
+  <si>
+    <t>TempleWR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -568,245 +723,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CellPhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HomePhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住家電話</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手機</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CellPhone1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CellPhone2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>職稱ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>職級表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>職及名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HomePhone1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HomePhone2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lbirthday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TempleTKShape</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TKDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TKName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TKPhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TKAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TKMoney</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TKAccess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TKAccessId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TKAccount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TKAccountId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TempleBright</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BRDare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BRYear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BRChYear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BRNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BEName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BRPhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BRAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BRAge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BRBrithday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BRAccess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BRAccessId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BRAccount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BRAccountId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光明燈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>太歲燈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TempleTaiSui</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TSDare</t>
-  </si>
-  <si>
-    <t>TSYear</t>
-  </si>
-  <si>
-    <t>TSChYear</t>
-  </si>
-  <si>
-    <t>TSNo</t>
-  </si>
-  <si>
-    <t>TSName</t>
-  </si>
-  <si>
-    <t>TSPhone</t>
-  </si>
-  <si>
-    <t>TSAddress</t>
-  </si>
-  <si>
-    <t>TSBrithday</t>
-  </si>
-  <si>
-    <t>TSAge</t>
-  </si>
-  <si>
-    <t>TSAccess</t>
-  </si>
-  <si>
-    <t>TSAccessId</t>
-  </si>
-  <si>
-    <t>TSAccount</t>
-  </si>
-  <si>
-    <t>TSAccountId</t>
-  </si>
-  <si>
-    <t>TempleWR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>電話</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手機</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>選單權限表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TempleMenuRole</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建立日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>選單第一層</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -842,6 +762,30 @@
   </si>
   <si>
     <t>URoleName</t>
+  </si>
+  <si>
+    <t>TempleRole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TempleClient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoSDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoEDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結束日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -906,7 +850,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -944,17 +888,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -967,7 +900,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -978,9 +911,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1">
@@ -1275,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1290,103 +1220,56 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="4" t="s">
-        <v>88</v>
-      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1396,10 +1279,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O245"/>
+  <dimension ref="A1:O244"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1414,28 +1297,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="A1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -1455,7 +1338,7 @@
         <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="D3" t="s">
         <v>40</v>
@@ -1472,7 +1355,7 @@
         <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="D4" t="s">
         <v>40</v>
@@ -1489,7 +1372,7 @@
         <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="D5" t="s">
         <v>41</v>
@@ -1506,13 +1389,13 @@
         <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="D6" t="s">
         <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1520,7 +1403,7 @@
         <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="D7" t="s">
         <v>40</v>
@@ -1529,7 +1412,7 @@
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1537,13 +1420,13 @@
         <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="D8" t="s">
         <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1551,7 +1434,7 @@
         <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="D9" t="s">
         <v>42</v>
@@ -1646,31 +1529,31 @@
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="A16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C17" t="s">
         <v>31</v>
@@ -1679,167 +1562,175 @@
         <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F18" t="s">
-        <v>198</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="O18" s="1"/>
+        <v>179</v>
+      </c>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F19" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F20" t="s">
-        <v>200</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F21" t="s">
-        <v>201</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="O21" s="1"/>
+        <v>182</v>
+      </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>197</v>
+        <v>190</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>202</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="O24" s="1"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>197</v>
-      </c>
-      <c r="C26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26">
-        <v>20</v>
-      </c>
-      <c r="F26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="I27" s="1"/>
       <c r="M27" s="1"/>
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>45</v>
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" t="s">
+        <v>69</v>
       </c>
       <c r="I28" s="1"/>
       <c r="M28" s="1"/>
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>90</v>
-      </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>67</v>
+      </c>
+      <c r="E29">
+        <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="I29" s="1"/>
       <c r="M29" s="1"/>
@@ -1847,19 +1738,19 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E30">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="1"/>
       <c r="M30" s="1"/>
@@ -1867,19 +1758,19 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="I31" s="1"/>
       <c r="M31" s="1"/>
@@ -1887,19 +1778,19 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E32">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="I32" s="1"/>
       <c r="M32" s="1"/>
@@ -1907,19 +1798,19 @@
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="C33" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="D33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I33" s="1"/>
       <c r="M33" s="1"/>
@@ -1927,19 +1818,19 @@
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="C34" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E34">
         <v>30</v>
       </c>
       <c r="F34" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I34" s="1"/>
       <c r="M34" s="1"/>
@@ -1947,19 +1838,19 @@
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="C35" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="D35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E35">
         <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I35" s="1"/>
       <c r="M35" s="1"/>
@@ -1967,19 +1858,19 @@
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="C36" t="s">
-        <v>150</v>
+        <v>53</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E36">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I36" s="1"/>
       <c r="M36" s="1"/>
@@ -1987,857 +1878,851 @@
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="C37" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="D37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E37">
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>6</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="O37" s="1"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="C38" t="s">
-        <v>151</v>
+        <v>55</v>
       </c>
       <c r="D38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E38">
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D39" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E39">
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="C40" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="D40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E40">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="L40" s="1"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="C41" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="D41" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E41">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L41" s="1"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="C42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E42">
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L42" s="1"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="C43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E43">
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L43" s="1"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="C44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D44" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E44">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L44" s="1"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="C45" t="s">
         <v>61</v>
       </c>
       <c r="D45" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E45">
         <v>3</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="L45" s="1"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="C46" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E46">
         <v>3</v>
       </c>
       <c r="F46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="C47" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="D47" t="s">
-        <v>69</v>
-      </c>
-      <c r="E47">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="C49" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D49" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="E49">
+        <v>20</v>
       </c>
       <c r="F49" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D50" t="s">
-        <v>40</v>
-      </c>
-      <c r="E50">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
+        <v>191</v>
+      </c>
+      <c r="C51" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51">
+        <v>20</v>
+      </c>
+      <c r="F51" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" t="s">
+        <v>38</v>
+      </c>
+      <c r="F56" t="s">
         <v>70</v>
       </c>
-      <c r="C51" t="s">
-        <v>35</v>
-      </c>
-      <c r="D51" t="s">
-        <v>43</v>
-      </c>
-      <c r="F51" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D52" t="s">
-        <v>39</v>
-      </c>
-      <c r="E52">
-        <v>20</v>
-      </c>
-      <c r="F52" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B56" s="5" t="s">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>48</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>90</v>
-      </c>
-      <c r="B57" t="s">
-        <v>49</v>
-      </c>
       <c r="C57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D57" t="s">
-        <v>38</v>
+        <v>112</v>
+      </c>
+      <c r="E57">
+        <v>20</v>
       </c>
       <c r="F57" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C58" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="D58" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="E58">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F58" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C59" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="D59" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="E59">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F59" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C60" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D60" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="E60">
         <v>20</v>
       </c>
       <c r="F60" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C61" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="D61" t="s">
-        <v>130</v>
-      </c>
-      <c r="E61">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C62" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F62" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D63" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="E63">
+        <v>50</v>
       </c>
       <c r="F63" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D64" t="s">
-        <v>40</v>
-      </c>
-      <c r="E64">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F64" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C65" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D65" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="E65">
+        <v>50</v>
       </c>
       <c r="F65" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>49</v>
-      </c>
-      <c r="C66" t="s">
-        <v>37</v>
-      </c>
-      <c r="D66" t="s">
-        <v>39</v>
-      </c>
-      <c r="E66">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" t="s">
+        <v>31</v>
+      </c>
+      <c r="D71" t="s">
+        <v>38</v>
+      </c>
+      <c r="F71" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>66</v>
+      </c>
+      <c r="C72" t="s">
+        <v>64</v>
+      </c>
+      <c r="D72" t="s">
+        <v>65</v>
+      </c>
+      <c r="E72">
         <v>50</v>
       </c>
-      <c r="F66" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>90</v>
-      </c>
-      <c r="B72" t="s">
-        <v>68</v>
-      </c>
-      <c r="C72" t="s">
-        <v>31</v>
-      </c>
-      <c r="D72" t="s">
-        <v>38</v>
-      </c>
       <c r="F72" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C73" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="D73" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E73">
         <v>50</v>
       </c>
       <c r="F73" t="s">
-        <v>128</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C74" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
       <c r="D74" t="s">
-        <v>67</v>
-      </c>
-      <c r="E74">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C75" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F75" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C76" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D76" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="E76">
+        <v>20</v>
       </c>
       <c r="F76" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D77" t="s">
-        <v>40</v>
-      </c>
-      <c r="E77">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="F77" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D78" t="s">
+        <v>39</v>
+      </c>
+      <c r="E78">
+        <v>20</v>
+      </c>
+      <c r="F78" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>76</v>
+      </c>
+      <c r="B83" t="s">
+        <v>78</v>
+      </c>
+      <c r="C83" t="s">
+        <v>31</v>
+      </c>
+      <c r="D83" t="s">
+        <v>38</v>
+      </c>
+      <c r="F83" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>78</v>
+      </c>
+      <c r="C84" t="s">
+        <v>193</v>
+      </c>
+      <c r="D84" t="s">
         <v>43</v>
       </c>
-      <c r="F78" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>91</v>
-      </c>
-      <c r="C79" t="s">
-        <v>37</v>
-      </c>
-      <c r="D79" t="s">
-        <v>39</v>
-      </c>
-      <c r="E79">
-        <v>20</v>
-      </c>
-      <c r="F79" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>90</v>
-      </c>
-      <c r="B84" t="s">
-        <v>92</v>
-      </c>
-      <c r="C84" t="s">
-        <v>31</v>
-      </c>
-      <c r="D84" t="s">
-        <v>38</v>
-      </c>
       <c r="F84" t="s">
-        <v>93</v>
+        <v>192</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C85" t="s">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c r="D85" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F85" t="s">
-        <v>94</v>
+        <v>195</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C86" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D86" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E86" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F86" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C87" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D87" t="s">
-        <v>100</v>
+        <v>82</v>
+      </c>
+      <c r="E87">
+        <v>20</v>
       </c>
       <c r="F87" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C88" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="D88" t="s">
-        <v>98</v>
-      </c>
-      <c r="E88">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="F88" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C89" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D89" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="E89">
+        <v>8</v>
       </c>
       <c r="F89" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C90" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D90" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E90">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F90" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D91" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E91">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F91" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C92" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D92" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E92">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F92" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
-        <v>92</v>
-      </c>
-      <c r="C93" t="s">
-        <v>37</v>
-      </c>
-      <c r="D93" t="s">
-        <v>40</v>
-      </c>
-      <c r="E93">
-        <v>20</v>
-      </c>
-      <c r="F93" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="114" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="115" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B132" s="8"/>
+    <row r="131" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B131" s="7"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D135" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E135" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F135" s="6" t="s">
-        <v>45</v>
+      <c r="A135" t="s">
+        <v>76</v>
+      </c>
+      <c r="B135" t="s">
+        <v>175</v>
+      </c>
+      <c r="C135" t="s">
+        <v>31</v>
+      </c>
+      <c r="D135" t="s">
+        <v>38</v>
+      </c>
+      <c r="F135" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>90</v>
-      </c>
       <c r="B136" t="s">
-        <v>193</v>
-      </c>
-      <c r="C136" t="s">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c r="D136" t="s">
-        <v>38</v>
+        <v>112</v>
+      </c>
+      <c r="E136">
+        <v>20</v>
       </c>
       <c r="F136" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="D137" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="E137">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F137" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="D138" t="s">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="E138">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F138" t="s">
-        <v>110</v>
+        <v>176</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="D139" t="s">
         <v>41</v>
@@ -2846,1373 +2731,1359 @@
         <v>20</v>
       </c>
       <c r="F139" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="D140" t="s">
-        <v>41</v>
-      </c>
-      <c r="E140">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="F140" t="s">
-        <v>195</v>
+        <v>102</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="D141" t="s">
-        <v>43</v>
+        <v>112</v>
+      </c>
+      <c r="E141" t="s">
+        <v>113</v>
       </c>
       <c r="F141" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>193</v>
+        <v>175</v>
+      </c>
+      <c r="C142" t="s">
+        <v>33</v>
       </c>
       <c r="D142" t="s">
-        <v>130</v>
-      </c>
-      <c r="E142" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="F142" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="C143" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D143" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F143" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="C144" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D144" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="E144">
+        <v>20</v>
       </c>
       <c r="F144" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="C145" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D145" t="s">
-        <v>40</v>
-      </c>
-      <c r="E145">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="F145" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="C146" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D146" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="E146">
+        <v>20</v>
       </c>
       <c r="F146" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B147" t="s">
-        <v>193</v>
-      </c>
-      <c r="C147" t="s">
-        <v>37</v>
-      </c>
-      <c r="D147" t="s">
-        <v>39</v>
-      </c>
-      <c r="E147">
-        <v>20</v>
-      </c>
-      <c r="F147" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D149" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E149" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F149" s="6" t="s">
-        <v>45</v>
+      <c r="A149" t="s">
+        <v>76</v>
+      </c>
+      <c r="C149" t="s">
+        <v>31</v>
+      </c>
+      <c r="D149" t="s">
+        <v>38</v>
+      </c>
+      <c r="F149" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>90</v>
-      </c>
-      <c r="C150" t="s">
-        <v>31</v>
-      </c>
       <c r="D150" t="s">
         <v>38</v>
       </c>
       <c r="F150" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D151" t="s">
-        <v>38</v>
+        <v>112</v>
+      </c>
+      <c r="E151" t="s">
+        <v>113</v>
       </c>
       <c r="F151" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D152" t="s">
-        <v>130</v>
-      </c>
-      <c r="E152" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="F152" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D153" t="s">
-        <v>38</v>
+        <v>112</v>
+      </c>
+      <c r="E153">
+        <v>20</v>
       </c>
       <c r="F153" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C154" t="s">
+        <v>33</v>
+      </c>
       <c r="D154" t="s">
-        <v>130</v>
-      </c>
-      <c r="E154">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="F154" t="s">
-        <v>132</v>
+        <v>22</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C155" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D155" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F155" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C156" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D156" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="E156">
+        <v>20</v>
       </c>
       <c r="F156" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C157" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D157" t="s">
-        <v>40</v>
-      </c>
-      <c r="E157">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="F157" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C158" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D158" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="E158">
+        <v>20</v>
       </c>
       <c r="F158" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C159" t="s">
-        <v>37</v>
-      </c>
-      <c r="D159" t="s">
-        <v>39</v>
-      </c>
-      <c r="E159">
-        <v>20</v>
-      </c>
-      <c r="F159" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D163" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E163" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F163" s="6" t="s">
-        <v>45</v>
+      <c r="A163" t="s">
+        <v>76</v>
+      </c>
+      <c r="C163" t="s">
+        <v>31</v>
+      </c>
+      <c r="D163" t="s">
+        <v>38</v>
+      </c>
+      <c r="F163" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>90</v>
-      </c>
-      <c r="C164" t="s">
-        <v>31</v>
-      </c>
       <c r="D164" t="s">
-        <v>38</v>
+        <v>112</v>
+      </c>
+      <c r="E164">
+        <v>20</v>
       </c>
       <c r="F164" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C165" t="s">
+        <v>33</v>
+      </c>
       <c r="D165" t="s">
-        <v>130</v>
-      </c>
-      <c r="E165">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="F165" t="s">
-        <v>147</v>
+        <v>22</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C166" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D166" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F166" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C167" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D167" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="E167">
+        <v>20</v>
       </c>
       <c r="F167" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D168" t="s">
-        <v>40</v>
-      </c>
-      <c r="E168">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="F168" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C169" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D169" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="E169">
+        <v>20</v>
       </c>
       <c r="F169" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C170" t="s">
-        <v>37</v>
-      </c>
-      <c r="D170" t="s">
-        <v>39</v>
-      </c>
-      <c r="E170">
-        <v>20</v>
-      </c>
-      <c r="F170" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B172" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D172" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E172" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F172" s="6" t="s">
-        <v>45</v>
+      <c r="A172" t="s">
+        <v>76</v>
+      </c>
+      <c r="C172" t="s">
+        <v>31</v>
+      </c>
+      <c r="D172" t="s">
+        <v>38</v>
+      </c>
+      <c r="F172" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>90</v>
-      </c>
-      <c r="C173" t="s">
-        <v>31</v>
-      </c>
       <c r="D173" t="s">
-        <v>38</v>
+        <v>112</v>
+      </c>
+      <c r="E173">
+        <v>20</v>
       </c>
       <c r="F173" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C174" t="s">
+        <v>33</v>
+      </c>
       <c r="D174" t="s">
-        <v>130</v>
-      </c>
-      <c r="E174">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="F174" t="s">
-        <v>146</v>
+        <v>22</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C175" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D175" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F175" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C176" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D176" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="E176">
+        <v>20</v>
       </c>
       <c r="F176" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C177" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D177" t="s">
-        <v>40</v>
-      </c>
-      <c r="E177">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="F177" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C178" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D178" t="s">
+        <v>39</v>
+      </c>
+      <c r="E178">
+        <v>20</v>
+      </c>
+      <c r="F178" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F187" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>76</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C188" t="s">
+        <v>31</v>
+      </c>
+      <c r="D188" t="s">
+        <v>38</v>
+      </c>
+      <c r="F188" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B189" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C189" t="s">
+        <v>145</v>
+      </c>
+      <c r="D189" t="s">
         <v>43</v>
       </c>
-      <c r="F178" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C179" t="s">
-        <v>37</v>
-      </c>
-      <c r="D179" t="s">
-        <v>39</v>
-      </c>
-      <c r="E179">
-        <v>20</v>
-      </c>
-      <c r="F179" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B188" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C188" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D188" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E188" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F188" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>90</v>
-      </c>
-      <c r="B189" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C189" t="s">
-        <v>31</v>
-      </c>
-      <c r="D189" t="s">
-        <v>38</v>
-      </c>
       <c r="F189" t="s">
-        <v>177</v>
+        <v>94</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B190" s="7" t="s">
-        <v>162</v>
+      <c r="B190" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="C190" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="D190" t="s">
-        <v>43</v>
+        <v>158</v>
+      </c>
+      <c r="E190">
+        <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B191" s="7" t="s">
-        <v>162</v>
+      <c r="B191" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="C191" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="D191" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="E191">
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B192" s="7" t="s">
-        <v>162</v>
+      <c r="B192" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="C192" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="D192" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="E192">
+        <v>20</v>
+      </c>
+      <c r="F192" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B193" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C193" t="s">
+        <v>149</v>
+      </c>
+      <c r="D193" t="s">
+        <v>158</v>
+      </c>
+      <c r="E193">
+        <v>20</v>
+      </c>
+      <c r="F193" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B194" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C194" t="s">
+        <v>150</v>
+      </c>
+      <c r="D194" t="s">
+        <v>158</v>
+      </c>
+      <c r="E194">
+        <v>50</v>
+      </c>
+      <c r="F194" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B195" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C195" t="s">
+        <v>151</v>
+      </c>
+      <c r="D195" t="s">
+        <v>158</v>
+      </c>
+      <c r="E195">
+        <v>200</v>
+      </c>
+      <c r="F195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B196" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C196" t="s">
+        <v>153</v>
+      </c>
+      <c r="D196" t="s">
+        <v>158</v>
+      </c>
+      <c r="E196">
         <v>10</v>
       </c>
-      <c r="F192" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B193" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C193" t="s">
-        <v>166</v>
-      </c>
-      <c r="D193" t="s">
-        <v>176</v>
-      </c>
-      <c r="E193">
-        <v>20</v>
-      </c>
-      <c r="F193" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B194" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C194" t="s">
-        <v>167</v>
-      </c>
-      <c r="D194" t="s">
-        <v>176</v>
-      </c>
-      <c r="E194">
-        <v>20</v>
-      </c>
-      <c r="F194" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B195" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C195" t="s">
-        <v>168</v>
-      </c>
-      <c r="D195" t="s">
-        <v>176</v>
-      </c>
-      <c r="E195">
-        <v>50</v>
-      </c>
-      <c r="F195" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B196" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C196" t="s">
-        <v>169</v>
-      </c>
-      <c r="D196" t="s">
-        <v>176</v>
-      </c>
-      <c r="E196">
-        <v>200</v>
-      </c>
       <c r="F196" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B197" s="7" t="s">
-        <v>162</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B197" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="C197" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="D197" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="E197">
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B198" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B198" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C198" t="s">
+        <v>154</v>
+      </c>
+      <c r="D198" t="s">
+        <v>158</v>
+      </c>
+      <c r="E198">
+        <v>20</v>
+      </c>
+      <c r="F198" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B199" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C199" t="s">
+        <v>155</v>
+      </c>
+      <c r="D199" t="s">
+        <v>38</v>
+      </c>
+      <c r="F199" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B200" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C200" t="s">
+        <v>156</v>
+      </c>
+      <c r="D200" t="s">
+        <v>158</v>
+      </c>
+      <c r="E200">
+        <v>20</v>
+      </c>
+      <c r="F200" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B201" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C201" t="s">
+        <v>157</v>
+      </c>
+      <c r="D201" t="s">
+        <v>38</v>
+      </c>
+      <c r="F201" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B202" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C202" t="s">
+        <v>33</v>
+      </c>
+      <c r="D202" t="s">
+        <v>44</v>
+      </c>
+      <c r="F202" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B203" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C203" t="s">
+        <v>34</v>
+      </c>
+      <c r="D203" t="s">
+        <v>43</v>
+      </c>
+      <c r="F203" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B204" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C204" t="s">
+        <v>36</v>
+      </c>
+      <c r="D204" t="s">
+        <v>40</v>
+      </c>
+      <c r="E204">
+        <v>20</v>
+      </c>
+      <c r="F204" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B205" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C205" t="s">
+        <v>35</v>
+      </c>
+      <c r="D205" t="s">
+        <v>43</v>
+      </c>
+      <c r="F205" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B206" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C206" t="s">
+        <v>37</v>
+      </c>
+      <c r="D206" t="s">
+        <v>39</v>
+      </c>
+      <c r="E206">
+        <v>20</v>
+      </c>
+      <c r="F206" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F208" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>76</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C209" t="s">
+        <v>31</v>
+      </c>
+      <c r="D209" t="s">
+        <v>38</v>
+      </c>
+      <c r="F209" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B210" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C210" t="s">
         <v>162</v>
       </c>
-      <c r="C198" t="s">
-        <v>170</v>
-      </c>
-      <c r="D198" t="s">
-        <v>176</v>
-      </c>
-      <c r="E198">
+      <c r="D210" t="s">
+        <v>43</v>
+      </c>
+      <c r="F210" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B211" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C211" t="s">
+        <v>163</v>
+      </c>
+      <c r="D211" t="s">
+        <v>158</v>
+      </c>
+      <c r="E211">
         <v>10</v>
       </c>
-      <c r="F198" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B199" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C199" t="s">
-        <v>172</v>
-      </c>
-      <c r="D199" t="s">
-        <v>176</v>
-      </c>
-      <c r="E199">
-        <v>20</v>
-      </c>
-      <c r="F199" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B200" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C200" t="s">
-        <v>173</v>
-      </c>
-      <c r="D200" t="s">
-        <v>38</v>
-      </c>
-      <c r="F200" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B201" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C201" t="s">
-        <v>174</v>
-      </c>
-      <c r="D201" t="s">
-        <v>176</v>
-      </c>
-      <c r="E201">
-        <v>20</v>
-      </c>
-      <c r="F201" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B202" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C202" t="s">
-        <v>175</v>
-      </c>
-      <c r="D202" t="s">
-        <v>38</v>
-      </c>
-      <c r="F202" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B203" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C203" t="s">
-        <v>33</v>
-      </c>
-      <c r="D203" t="s">
-        <v>44</v>
-      </c>
-      <c r="F203" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B204" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C204" t="s">
-        <v>34</v>
-      </c>
-      <c r="D204" t="s">
-        <v>43</v>
-      </c>
-      <c r="F204" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B205" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C205" t="s">
-        <v>36</v>
-      </c>
-      <c r="D205" t="s">
-        <v>40</v>
-      </c>
-      <c r="E205">
-        <v>20</v>
-      </c>
-      <c r="F205" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B206" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C206" t="s">
-        <v>35</v>
-      </c>
-      <c r="D206" t="s">
-        <v>43</v>
-      </c>
-      <c r="F206" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B207" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C207" t="s">
-        <v>37</v>
-      </c>
-      <c r="D207" t="s">
-        <v>39</v>
-      </c>
-      <c r="E207">
-        <v>20</v>
-      </c>
-      <c r="F207" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B209" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C209" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D209" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E209" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F209" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>90</v>
-      </c>
-      <c r="B210" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C210" t="s">
-        <v>31</v>
-      </c>
-      <c r="D210" t="s">
-        <v>38</v>
-      </c>
-      <c r="F210" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B211" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C211" t="s">
-        <v>180</v>
-      </c>
-      <c r="D211" t="s">
-        <v>43</v>
-      </c>
       <c r="F211" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B212" s="7" t="s">
-        <v>179</v>
+      <c r="B212" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="C212" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="D212" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="E212">
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B213" s="7" t="s">
-        <v>179</v>
+      <c r="B213" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="C213" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="D213" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="E213">
+        <v>20</v>
+      </c>
+      <c r="F213" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B214" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C214" t="s">
+        <v>166</v>
+      </c>
+      <c r="D214" t="s">
+        <v>158</v>
+      </c>
+      <c r="E214">
+        <v>20</v>
+      </c>
+      <c r="F214" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B215" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C215" t="s">
+        <v>167</v>
+      </c>
+      <c r="D215" t="s">
+        <v>158</v>
+      </c>
+      <c r="E215">
+        <v>50</v>
+      </c>
+      <c r="F215" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B216" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C216" t="s">
+        <v>168</v>
+      </c>
+      <c r="D216" t="s">
+        <v>158</v>
+      </c>
+      <c r="E216">
+        <v>200</v>
+      </c>
+      <c r="F216" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B217" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C217" t="s">
+        <v>169</v>
+      </c>
+      <c r="D217" t="s">
+        <v>158</v>
+      </c>
+      <c r="E217">
         <v>10</v>
       </c>
-      <c r="F213" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B214" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C214" t="s">
-        <v>183</v>
-      </c>
-      <c r="D214" t="s">
-        <v>176</v>
-      </c>
-      <c r="E214">
-        <v>20</v>
-      </c>
-      <c r="F214" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B215" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C215" t="s">
-        <v>184</v>
-      </c>
-      <c r="D215" t="s">
-        <v>176</v>
-      </c>
-      <c r="E215">
-        <v>20</v>
-      </c>
-      <c r="F215" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B216" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C216" t="s">
-        <v>185</v>
-      </c>
-      <c r="D216" t="s">
-        <v>176</v>
-      </c>
-      <c r="E216">
-        <v>50</v>
-      </c>
-      <c r="F216" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B217" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C217" t="s">
-        <v>186</v>
-      </c>
-      <c r="D217" t="s">
-        <v>176</v>
-      </c>
-      <c r="E217">
-        <v>200</v>
-      </c>
       <c r="F217" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B218" s="7" t="s">
-        <v>179</v>
+      <c r="B218" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="C218" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="D218" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="E218">
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B219" s="7" t="s">
-        <v>179</v>
+      <c r="B219" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="C219" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="D219" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="E219">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F219" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B220" s="7" t="s">
-        <v>179</v>
+      <c r="B220" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="C220" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="D220" t="s">
-        <v>176</v>
-      </c>
-      <c r="E220">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F220" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B221" s="7" t="s">
-        <v>179</v>
+      <c r="B221" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="C221" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="D221" t="s">
+        <v>158</v>
+      </c>
+      <c r="E221">
+        <v>20</v>
+      </c>
+      <c r="F221" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B222" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C222" t="s">
+        <v>174</v>
+      </c>
+      <c r="D222" t="s">
         <v>38</v>
       </c>
-      <c r="F221" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B222" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C222" t="s">
-        <v>191</v>
-      </c>
-      <c r="D222" t="s">
-        <v>176</v>
-      </c>
-      <c r="E222">
-        <v>20</v>
-      </c>
       <c r="F222" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B223" s="7" t="s">
-        <v>179</v>
+      <c r="B223" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="C223" t="s">
-        <v>192</v>
+        <v>33</v>
       </c>
       <c r="D223" t="s">
+        <v>44</v>
+      </c>
+      <c r="F223" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B224" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C224" t="s">
+        <v>34</v>
+      </c>
+      <c r="D224" t="s">
+        <v>43</v>
+      </c>
+      <c r="F224" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B225" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C225" t="s">
+        <v>36</v>
+      </c>
+      <c r="D225" t="s">
+        <v>40</v>
+      </c>
+      <c r="E225">
+        <v>20</v>
+      </c>
+      <c r="F225" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B226" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C226" t="s">
+        <v>35</v>
+      </c>
+      <c r="D226" t="s">
+        <v>43</v>
+      </c>
+      <c r="F226" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B227" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C227" t="s">
+        <v>37</v>
+      </c>
+      <c r="D227" t="s">
+        <v>39</v>
+      </c>
+      <c r="E227">
+        <v>20</v>
+      </c>
+      <c r="F227" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D229" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E229" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F229" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>76</v>
+      </c>
+      <c r="B230" t="s">
+        <v>134</v>
+      </c>
+      <c r="C230" t="s">
+        <v>31</v>
+      </c>
+      <c r="D230" t="s">
         <v>38</v>
       </c>
-      <c r="F223" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B224" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C224" t="s">
-        <v>33</v>
-      </c>
-      <c r="D224" t="s">
-        <v>44</v>
-      </c>
-      <c r="F224" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B225" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C225" t="s">
-        <v>34</v>
-      </c>
-      <c r="D225" t="s">
-        <v>43</v>
-      </c>
-      <c r="F225" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B226" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C226" t="s">
-        <v>36</v>
-      </c>
-      <c r="D226" t="s">
-        <v>40</v>
-      </c>
-      <c r="E226">
-        <v>20</v>
-      </c>
-      <c r="F226" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B227" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C227" t="s">
-        <v>35</v>
-      </c>
-      <c r="D227" t="s">
-        <v>43</v>
-      </c>
-      <c r="F227" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B228" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C228" t="s">
-        <v>37</v>
-      </c>
-      <c r="D228" t="s">
-        <v>39</v>
-      </c>
-      <c r="E228">
-        <v>20</v>
-      </c>
-      <c r="F228" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B230" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C230" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D230" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E230" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F230" s="6" t="s">
-        <v>45</v>
+      <c r="F230" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>90</v>
-      </c>
       <c r="B231" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C231" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="D231" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="E231">
+        <v>8</v>
       </c>
       <c r="F231" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C232" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D232" t="s">
         <v>41</v>
       </c>
       <c r="E232">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F232" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C233" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="D233" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="E233">
         <v>20</v>
       </c>
       <c r="F233" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C234" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="D234" t="s">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="E234">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F234" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C235" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="D235" t="s">
-        <v>41</v>
-      </c>
-      <c r="E235">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F235" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C236" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="D236" t="s">
-        <v>127</v>
+        <v>41</v>
+      </c>
+      <c r="E236">
+        <v>50</v>
       </c>
       <c r="F236" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C237" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="D237" t="s">
-        <v>41</v>
-      </c>
-      <c r="E237">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F237" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C238" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="D238" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="E238">
+        <v>50</v>
       </c>
       <c r="F238" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C239" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="D239" t="s">
-        <v>41</v>
-      </c>
-      <c r="E239">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F239" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C240" t="s">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c r="D240" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F240" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
     </row>
     <row r="241" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C241" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D241" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F241" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="242" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C242" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D242" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="E242">
+        <v>20</v>
       </c>
       <c r="F242" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="243" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C243" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D243" t="s">
-        <v>40</v>
-      </c>
-      <c r="E243">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="F243" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="244" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C244" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D244" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="E244">
+        <v>20</v>
       </c>
       <c r="F244" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B245" t="s">
-        <v>152</v>
-      </c>
-      <c r="C245" t="s">
-        <v>37</v>
-      </c>
-      <c r="D245" t="s">
-        <v>39</v>
-      </c>
-      <c r="E245">
-        <v>20</v>
-      </c>
-      <c r="F245" t="s">
         <v>26</v>
       </c>
     </row>
